--- a/test_data/test_pro_gripper.xlsx
+++ b/test_data/test_pro_gripper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="620" firstSheet="27" activeTab="36"/>
+    <workbookView windowWidth="23040" windowHeight="10500" tabRatio="620" firstSheet="30" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="get_firmware_version" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,11 @@
     <sheet name="set_gripper_cw" sheetId="17" r:id="rId18"/>
     <sheet name="set_gripper_cww" sheetId="18" r:id="rId19"/>
     <sheet name="get_gripper_cww" sheetId="20" r:id="rId20"/>
-    <sheet name="set_gripper_min_pressue" sheetId="21" r:id="rId21"/>
+    <sheet name="set_gripper_min_pressure" sheetId="21" r:id="rId21"/>
     <sheet name="get_gripper_min_pressure" sheetId="22" r:id="rId22"/>
     <sheet name="set_gripper_torque" sheetId="23" r:id="rId23"/>
     <sheet name="get_gripper_torque" sheetId="24" r:id="rId24"/>
-    <sheet name="set_output" sheetId="25" r:id="rId25"/>
+    <sheet name="set_out_put" sheetId="25" r:id="rId25"/>
     <sheet name="set_open_angle" sheetId="26" r:id="rId26"/>
     <sheet name="set_close_angle" sheetId="27" r:id="rId27"/>
     <sheet name="set_speed" sheetId="28" r:id="rId28"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -116,7 +116,7 @@
     <t>normal</t>
   </si>
   <si>
-    <t>设置ID参数超限</t>
+    <t>设置固件ID号（超限）</t>
   </si>
   <si>
     <t>exception</t>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>IP</t>
-  </si>
-  <si>
-    <t>expect_Pata</t>
   </si>
   <si>
     <t>正确设置夹爪P值</t>
@@ -1038,12 +1035,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1585,7 +1579,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1611,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -1622,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1642,10 +1636,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -1659,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1720,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1740,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -1757,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1812,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -1871,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1891,10 +1885,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -1908,10 +1902,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1963,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2016,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2072,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2092,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -2109,10 +2103,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -2167,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2187,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -2204,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -2314,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2336,15 +2330,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
@@ -2372,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2388,36 +2382,36 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2">
-        <v>255</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2464,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2491,13 +2485,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,15 +2511,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2537,37 +2531,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
+    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>255</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2">
-        <v>255</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2614,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -2636,7 +2630,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2671,10 +2665,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -2691,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2711,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2731,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2751,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2768,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -2827,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2847,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2864,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2923,10 +2917,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -2943,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2960,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>101</v>
@@ -2984,17 +2978,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.88888888888889" style="2"/>
-    <col min="6" max="6" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88888888888889" style="1"/>
+    <col min="6" max="6" width="12.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
@@ -3013,7 +3007,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3022,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -3033,41 +3027,41 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1">
         <v>101</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3114,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3222,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3275,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3297,7 +3291,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -3338,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
@@ -3349,8 +3343,8 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:7">
@@ -3358,16 +3352,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+      <c r="G3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3375,16 +3369,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
+      <c r="G4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:7">
@@ -3392,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>101</v>
@@ -3412,10 +3406,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1">
         <v>60</v>
@@ -3470,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3523,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3576,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3629,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3651,15 +3645,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
@@ -3678,7 +3672,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3687,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -3698,41 +3692,41 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>111</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3779,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -3801,15 +3795,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
@@ -3828,7 +3822,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3837,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="1">
         <v>60</v>
@@ -3848,41 +3842,41 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1">
+        <v>301</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="2">
-        <v>101</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3898,7 +3892,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3948,7 +3942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="3" ht="28.8" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3959,13 +3953,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>256</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3976,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>-1</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -3994,7 +3988,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -4025,14 +4019,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4047,7 +4041,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -4101,7 +4095,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -4202,12 +4196,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="20.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.2222222222222" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="20.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:6">
@@ -4226,7 +4220,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4246,12 +4240,12 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4260,47 +4254,47 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>-1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4321,12 +4315,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:7">
@@ -4348,7 +4342,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4371,12 +4365,12 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4385,56 +4379,56 @@
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>101</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>101</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
